--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2874.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2874.xlsx
@@ -354,7 +354,7 @@
         <v>2.082617239682201</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.100625853231225</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2874.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2874.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.202523823210756</v>
+        <v>1.618505477905273</v>
       </c>
       <c r="B1">
-        <v>2.082617239682201</v>
+        <v>2.719385862350464</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.925768852233887</v>
       </c>
       <c r="D1">
-        <v>2.100625853231225</v>
+        <v>3.506209850311279</v>
       </c>
       <c r="E1">
-        <v>1.204883193229287</v>
+        <v>1.956411719322205</v>
       </c>
     </row>
   </sheetData>
